--- a/output/xlsx/RF012 - Ajuda--ART-.xlsx
+++ b/output/xlsx/RF012 - Ajuda--ART-.xlsx
@@ -95,7 +95,7 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Niveis das Competencias a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas clica na opcao 'Ajuda' para visualizar a ajuda da gestao de Niveis das Competencias</t>
